--- a/src/main/resources/script/db/init-data/asgard_service/asgard_service/2018-03-27-init-data.xlsx
+++ b/src/main/resources/script/db/init-data/asgard_service/asgard_service/2018-03-27-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="19200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <r>
       <rPr>
@@ -1919,6 +1919,9 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>mgmt-actuator-refresh</t>
@@ -2013,11 +2016,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2071,7 +2074,110 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2085,35 +2191,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2134,95 +2222,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2301,7 +2304,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2313,7 +2352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,7 +2376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,79 +2394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,43 +2424,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,12 +2501,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2528,6 +2547,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2539,26 +2571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2566,15 +2578,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2590,11 +2593,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2603,6 +2604,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2637,195 +2688,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="37">
@@ -2841,157 +2844,157 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3326,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3334,12 +3337,12 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="10.5037037037037" style="7" customWidth="1"/>
-    <col min="3" max="3" width="116.666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.5037037037037" style="8" customWidth="1"/>
-    <col min="5" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="1" max="2" width="10.50625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="116.66875" customWidth="1"/>
+    <col min="4" max="4" width="10.50625" style="8" customWidth="1"/>
+    <col min="5" max="1025" width="10.50625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64" customHeight="1" spans="1:8">
@@ -3349,130 +3352,130 @@
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
-    <row r="2" ht="15.75" spans="5:5">
-      <c r="E2" s="12"/>
+    <row r="2" spans="5:5">
+      <c r="E2" s="24"/>
     </row>
     <row r="3" ht="49" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
-    <row r="4" ht="30" spans="3:7">
-      <c r="C4" s="15" t="s">
+    <row r="4" ht="29" spans="3:7">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:3">
+    <row r="5" ht="17" spans="1:3">
       <c r="A5" s="9"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="33"/>
     </row>
-    <row r="9" ht="118.5" spans="3:6">
-      <c r="C9" s="25" t="s">
+    <row r="9" ht="101" spans="3:6">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="148.5" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" ht="130" spans="3:5">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="85.5" customHeight="1" spans="3:5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" ht="29" spans="3:5">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+    <row r="13" spans="3:5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="33"/>
     </row>
-    <row r="14" ht="15.75" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+    <row r="14" spans="3:5">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="33"/>
     </row>
-    <row r="15" ht="104.25" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="15" ht="87" spans="3:5">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3481,39 +3484,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="3:5">
-      <c r="C19" s="33" t="s">
+    <row r="19" ht="17" spans="3:5">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
-    <row r="20" ht="15.75" spans="3:4">
-      <c r="C20" s="34" t="s">
+    <row r="20" ht="17" spans="3:4">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" ht="17" spans="3:4">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" ht="17" spans="3:4">
+      <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" ht="17" spans="3:4">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3521,25 +3524,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="11"/>
     </row>
-    <row r="27" ht="30" spans="3:3">
-      <c r="C27" s="36" t="s">
+    <row r="27" ht="29" spans="3:3">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3553,33 +3556,33 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.5037037037037" customWidth="1"/>
+    <col min="1" max="3" width="10.50625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="26.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="26.50625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="1025" width="10.5037037037037" customWidth="1"/>
+    <col min="9" max="1025" width="10.50625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="4:8">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3610,18 +3613,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="5:8">
+    <row r="8" spans="5:8">
       <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3635,35 +3638,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.4"/>
   <cols>
-    <col min="1" max="3" width="10.162962962963" customWidth="1"/>
-    <col min="4" max="4" width="26.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="52.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="30.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="25.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="25.8296296296296" customWidth="1"/>
-    <col min="9" max="9" width="21.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="17.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="22.1703703703704" customWidth="1"/>
-    <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="24.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="22.8222222222222" customWidth="1"/>
-    <col min="15" max="1023" width="10.162962962963" customWidth="1"/>
-    <col min="1024" max="1025" width="9.66666666666667" customWidth="1"/>
+    <col min="1" max="3" width="10.1625" customWidth="1"/>
+    <col min="4" max="4" width="26.33125" customWidth="1"/>
+    <col min="5" max="5" width="52.775" customWidth="1"/>
+    <col min="6" max="6" width="30.33125" customWidth="1"/>
+    <col min="7" max="7" width="25.66875" customWidth="1"/>
+    <col min="8" max="8" width="25.83125" customWidth="1"/>
+    <col min="9" max="9" width="21.66875" customWidth="1"/>
+    <col min="10" max="10" width="17.50625" customWidth="1"/>
+    <col min="11" max="11" width="22.16875" customWidth="1"/>
+    <col min="12" max="12" width="17.33125" customWidth="1"/>
+    <col min="13" max="13" width="24.8875" customWidth="1"/>
+    <col min="14" max="14" width="22.825" customWidth="1"/>
+    <col min="15" max="1023" width="10.1625" customWidth="1"/>
+    <col min="1024" max="1025" width="9.66875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.75" spans="4:14">
+    <row r="7" spans="4:14">
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -3672,57 +3675,57 @@
         <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="5:19">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3732,31 +3735,31 @@
     </row>
     <row r="9" spans="5:19">
       <c r="E9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3766,31 +3769,31 @@
     </row>
     <row r="10" spans="5:19">
       <c r="E10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3798,33 +3801,33 @@
       <c r="Q10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="5:14">
+    <row r="11" ht="17.6" spans="5:14">
       <c r="E11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3832,31 +3835,31 @@
     </row>
     <row r="12" spans="5:14">
       <c r="E12" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3864,31 +3867,31 @@
     </row>
     <row r="13" spans="5:14">
       <c r="E13" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3896,31 +3899,31 @@
     </row>
     <row r="14" spans="5:14">
       <c r="E14" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3928,38 +3931,38 @@
     </row>
     <row r="15" spans="5:14">
       <c r="E15" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
